--- a/data/trans_dic/IP16B08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16B08-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,8; 100,0</t>
+          <t>21,22; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78,73; 100,0</t>
+          <t>81,04; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,8; 100,0</t>
+          <t>82,01; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>86,1; 100,0</t>
+          <t>84,66; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,42; 100,0</t>
+          <t>28,65; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>56,89; 100,0</t>
+          <t>57,18; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,76; 100,0</t>
+          <t>80,73; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>72,2; 100,0</t>
+          <t>74,84; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>78,88; 100,0</t>
+          <t>79,28; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>86,16; 98,49</t>
+          <t>87,02; 98,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>85,67; 100,0</t>
+          <t>86,51; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/IP16B08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16B08-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>67,42%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>67,42%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,37 +685,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>55,59; 100</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>43,07; 100</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>43,07; 100</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>22,85; 100</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 100,0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>55,59; 100</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,22; 100,0</t>
+          <t>26,88; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -742,22 +742,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>95,73%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>95,25%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>95,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -795,37 +795,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,04; 100,0</t>
+          <t>75,53; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>89,47; 100</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>90,01; 100</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>80,65; 100,0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>90,01; 100</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>91,36; 100</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>82,01; 100,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>89,47; 100</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>90,01; 100</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>84,66; 100,0</t>
+          <t>83,76; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -857,22 +857,22 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>81,95%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -905,34 +905,34 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>55,59; 100</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>69,43; 100</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>73,58; 100</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>28,65; 100,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>73,58; 100</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>37,84; 100,0</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>63,75; 100</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>55,59; 100</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>69,43; 100</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>73,58; 100</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
           <t>81,26; 100</t>
@@ -940,7 +940,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>57,18; 100,0</t>
+          <t>50,39; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -962,27 +962,27 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>93,25%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>96,51%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>94,52%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>93,25%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1015,42 +1015,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,73; 100,0</t>
+          <t>78,79; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,84; 100,0</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>92,39; 100</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>82,39; 100,0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>70,94; 100,0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>92,94; 100</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>79,28; 100,0</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>92,68; 100</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>92,39; 100</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,02; 98,49</t>
+          <t>86,46; 98,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>86,51; 100,0</t>
+          <t>86,17; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
